--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.182089</v>
+        <v>0.072717</v>
       </c>
       <c r="H2">
-        <v>0.364178</v>
+        <v>0.145434</v>
       </c>
       <c r="I2">
-        <v>0.002033828009694965</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="J2">
-        <v>0.001356805175920138</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.182089</v>
+        <v>0.072717</v>
       </c>
       <c r="N2">
-        <v>0.364178</v>
+        <v>0.145434</v>
       </c>
       <c r="O2">
-        <v>0.002033828009694965</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="P2">
-        <v>0.001356805175920138</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="Q2">
-        <v>0.033156403921</v>
+        <v>0.005287762089000001</v>
       </c>
       <c r="R2">
-        <v>0.132625615684</v>
+        <v>0.021151048356</v>
       </c>
       <c r="S2">
-        <v>4.136456373019783E-06</v>
+        <v>1.100675400636105E-06</v>
       </c>
       <c r="T2">
-        <v>1.840920285403678E-06</v>
+        <v>4.901776550154779E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.182089</v>
+        <v>0.072717</v>
       </c>
       <c r="H3">
-        <v>0.364178</v>
+        <v>0.145434</v>
       </c>
       <c r="I3">
-        <v>0.002033828009694965</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="J3">
-        <v>0.001356805175920138</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.31561666666666</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="N3">
-        <v>117.94685</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="O3">
-        <v>0.4391325252766332</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="P3">
-        <v>0.4394304339182383</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="Q3">
-        <v>7.158941323216666</v>
+        <v>1.740980185142</v>
       </c>
       <c r="R3">
-        <v>42.9536479393</v>
+        <v>10.445881110852</v>
       </c>
       <c r="S3">
-        <v>0.0008931200298756988</v>
+        <v>0.0003623941528623285</v>
       </c>
       <c r="T3">
-        <v>0.0005962214871970981</v>
+        <v>0.0002420843364974579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,46 +661,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.182089</v>
+        <v>0.072717</v>
       </c>
       <c r="H4">
-        <v>0.364178</v>
+        <v>0.145434</v>
       </c>
       <c r="I4">
-        <v>0.002033828009694965</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="J4">
-        <v>0.001356805175920138</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2206736666666667</v>
+        <v>0.13707</v>
       </c>
       <c r="N4">
-        <v>0.662021</v>
+        <v>0.27414</v>
       </c>
       <c r="O4">
-        <v>0.002464796249464585</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="P4">
-        <v>0.002466468373619016</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="Q4">
-        <v>0.04018224728966666</v>
+        <v>0.009967319190000001</v>
       </c>
       <c r="R4">
-        <v>0.241093483738</v>
+        <v>0.03986927676</v>
       </c>
       <c r="S4">
-        <v>5.012971650352171E-06</v>
+        <v>2.074749744422775E-06</v>
       </c>
       <c r="T4">
-        <v>3.346517055569607E-06</v>
+        <v>9.239744650215431E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -720,16 +723,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.182089</v>
+        <v>0.072717</v>
       </c>
       <c r="H5">
-        <v>0.364178</v>
+        <v>0.145434</v>
       </c>
       <c r="I5">
-        <v>0.002033828009694965</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="J5">
-        <v>0.001356805175920138</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,90 +741,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.81180666666666</v>
+        <v>10.88559566666667</v>
       </c>
       <c r="N5">
-        <v>149.43542</v>
+        <v>32.656787</v>
       </c>
       <c r="O5">
-        <v>0.5563688504642074</v>
+        <v>0.1570528694711127</v>
       </c>
       <c r="P5">
-        <v>0.5567462925322226</v>
+        <v>0.1572114811835737</v>
       </c>
       <c r="Q5">
-        <v>9.070182064126666</v>
+        <v>0.7915678600930001</v>
       </c>
       <c r="R5">
-        <v>54.42109238475999</v>
+        <v>4.749407160558</v>
       </c>
       <c r="S5">
-        <v>0.001131558551795895</v>
+        <v>0.0001647689999803482</v>
       </c>
       <c r="T5">
-        <v>0.0007553962513820672</v>
+        <v>0.000110067984597824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>39.31561666666666</v>
+        <v>0.072717</v>
       </c>
       <c r="H6">
-        <v>117.94685</v>
+        <v>0.145434</v>
       </c>
       <c r="I6">
-        <v>0.4391325252766332</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="J6">
-        <v>0.4394304339182383</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.182089</v>
+        <v>34.27442166666666</v>
       </c>
       <c r="N6">
-        <v>0.364178</v>
+        <v>102.823265</v>
       </c>
       <c r="O6">
-        <v>0.002033828009694965</v>
+        <v>0.4944971719550558</v>
       </c>
       <c r="P6">
-        <v>0.001356805175920138</v>
+        <v>0.4949965773050823</v>
       </c>
       <c r="Q6">
-        <v>7.158941323216666</v>
+        <v>2.492333120335</v>
       </c>
       <c r="R6">
-        <v>42.9536479393</v>
+        <v>14.95399872201</v>
       </c>
       <c r="S6">
-        <v>0.0008931200298756988</v>
+        <v>0.0005187922053925372</v>
       </c>
       <c r="T6">
-        <v>0.0005962214871970981</v>
+        <v>0.0003465604117244595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.31561666666666</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="H7">
-        <v>117.94685</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="I7">
-        <v>0.4391325252766332</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="J7">
-        <v>0.4394304339182383</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>39.31561666666666</v>
+        <v>0.072717</v>
       </c>
       <c r="N7">
-        <v>117.94685</v>
+        <v>0.145434</v>
       </c>
       <c r="O7">
-        <v>0.4391325252766332</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="P7">
-        <v>0.4394304339182383</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="Q7">
-        <v>1545.717713880278</v>
+        <v>1.740980185142</v>
       </c>
       <c r="R7">
-        <v>13911.4594249225</v>
+        <v>10.445881110852</v>
       </c>
       <c r="S7">
-        <v>0.1928373747558328</v>
+        <v>0.0003623941528623285</v>
       </c>
       <c r="T7">
-        <v>0.1930991062535712</v>
+        <v>0.0002420843364974579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.31561666666666</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="H8">
-        <v>117.94685</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="I8">
-        <v>0.4391325252766332</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="J8">
-        <v>0.4394304339182383</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2206736666666667</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="N8">
-        <v>0.662021</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="O8">
-        <v>0.002464796249464585</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="P8">
-        <v>0.002466468373619016</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="Q8">
-        <v>8.675921287094443</v>
+        <v>573.2126283371206</v>
       </c>
       <c r="R8">
-        <v>78.08329158385</v>
+        <v>5158.913655034085</v>
       </c>
       <c r="S8">
-        <v>0.001082372201319757</v>
+        <v>0.1193172137334099</v>
       </c>
       <c r="T8">
-        <v>0.001083841267665015</v>
+        <v>0.119558338446831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,140 +971,140 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.31561666666666</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="H9">
-        <v>117.94685</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="I9">
-        <v>0.4391325252766332</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="J9">
-        <v>0.4394304339182383</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>49.81180666666666</v>
+        <v>0.13707</v>
       </c>
       <c r="N9">
-        <v>149.43542</v>
+        <v>0.27414</v>
       </c>
       <c r="O9">
-        <v>0.5563688504642074</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="P9">
-        <v>0.5567462925322226</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="Q9">
-        <v>1958.381896380777</v>
+        <v>3.28171065882</v>
       </c>
       <c r="R9">
-        <v>17625.437067427</v>
+        <v>19.69026395292</v>
       </c>
       <c r="S9">
-        <v>0.2443196582896049</v>
+        <v>0.000683105278447122</v>
       </c>
       <c r="T9">
-        <v>0.244651264909805</v>
+        <v>0.0004563238307920646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2206736666666667</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="H10">
-        <v>0.662021</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="I10">
-        <v>0.002464796249464585</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="J10">
-        <v>0.002466468373619016</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.182089</v>
+        <v>10.88559566666667</v>
       </c>
       <c r="N10">
-        <v>0.364178</v>
+        <v>32.656787</v>
       </c>
       <c r="O10">
-        <v>0.002033828009694965</v>
+        <v>0.1570528694711127</v>
       </c>
       <c r="P10">
-        <v>0.001356805175920138</v>
+        <v>0.1572114811835737</v>
       </c>
       <c r="Q10">
-        <v>0.04018224728966666</v>
+        <v>260.6214002108763</v>
       </c>
       <c r="R10">
-        <v>0.241093483738</v>
+        <v>2345.592601897886</v>
       </c>
       <c r="S10">
-        <v>5.012971650352171E-06</v>
+        <v>0.0542497107969732</v>
       </c>
       <c r="T10">
-        <v>3.346517055569607E-06</v>
+        <v>0.05435934247173158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2206736666666667</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="H11">
-        <v>0.662021</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="I11">
-        <v>0.002464796249464585</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="J11">
-        <v>0.002466468373619016</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.31561666666666</v>
+        <v>34.27442166666666</v>
       </c>
       <c r="N11">
-        <v>117.94685</v>
+        <v>102.823265</v>
       </c>
       <c r="O11">
-        <v>0.4391325252766332</v>
+        <v>0.4944971719550558</v>
       </c>
       <c r="P11">
-        <v>0.4394304339182383</v>
+        <v>0.4949965773050823</v>
       </c>
       <c r="Q11">
-        <v>8.675921287094443</v>
+        <v>820.5933822746856</v>
       </c>
       <c r="R11">
-        <v>78.08329158385</v>
+        <v>7385.34044047217</v>
       </c>
       <c r="S11">
-        <v>0.001082372201319757</v>
+        <v>0.1708108145927074</v>
       </c>
       <c r="T11">
-        <v>0.001083841267665015</v>
+        <v>0.1711560012378625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2206736666666667</v>
+        <v>0.13707</v>
       </c>
       <c r="H12">
-        <v>0.662021</v>
+        <v>0.27414</v>
       </c>
       <c r="I12">
-        <v>0.002464796249464585</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="J12">
-        <v>0.002466468373619016</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.2206736666666667</v>
+        <v>0.072717</v>
       </c>
       <c r="N12">
-        <v>0.662021</v>
+        <v>0.145434</v>
       </c>
       <c r="O12">
-        <v>0.002464796249464585</v>
+        <v>0.001049130783380273</v>
       </c>
       <c r="P12">
-        <v>0.002466468373619016</v>
+        <v>0.0007001268849397785</v>
       </c>
       <c r="Q12">
-        <v>0.04869686716011111</v>
+        <v>0.009967319190000001</v>
       </c>
       <c r="R12">
-        <v>0.4382718044409999</v>
+        <v>0.03986927676</v>
       </c>
       <c r="S12">
-        <v>6.075220551374684E-06</v>
+        <v>2.074749744422775E-06</v>
       </c>
       <c r="T12">
-        <v>6.083466238062833E-06</v>
+        <v>9.239744650215431E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2206736666666667</v>
+        <v>0.13707</v>
       </c>
       <c r="H13">
-        <v>0.662021</v>
+        <v>0.27414</v>
       </c>
       <c r="I13">
-        <v>0.002464796249464585</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="J13">
-        <v>0.002466468373619016</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,60 +1237,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>49.81180666666666</v>
+        <v>23.94185933333334</v>
       </c>
       <c r="N13">
-        <v>149.43542</v>
+        <v>71.82557800000001</v>
       </c>
       <c r="O13">
-        <v>0.5563688504642074</v>
+        <v>0.3454232385543999</v>
       </c>
       <c r="P13">
-        <v>0.5567462925322226</v>
+        <v>0.3457720903237145</v>
       </c>
       <c r="Q13">
-        <v>10.99215402042444</v>
+        <v>3.28171065882</v>
       </c>
       <c r="R13">
-        <v>98.92938618381999</v>
+        <v>19.69026395292</v>
       </c>
       <c r="S13">
-        <v>0.001371335855943101</v>
+        <v>0.000683105278447122</v>
       </c>
       <c r="T13">
-        <v>0.001373197122660368</v>
+        <v>0.0004563238307920646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>49.81180666666666</v>
+        <v>0.13707</v>
       </c>
       <c r="H14">
-        <v>149.43542</v>
+        <v>0.27414</v>
       </c>
       <c r="I14">
-        <v>0.5563688504642074</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="J14">
-        <v>0.5567462925322226</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1296,60 +1299,60 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.182089</v>
+        <v>0.13707</v>
       </c>
       <c r="N14">
-        <v>0.364178</v>
+        <v>0.27414</v>
       </c>
       <c r="O14">
-        <v>0.002033828009694965</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="P14">
-        <v>0.001356805175920138</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="Q14">
-        <v>9.070182064126666</v>
+        <v>0.0187881849</v>
       </c>
       <c r="R14">
-        <v>54.42109238475999</v>
+        <v>0.07515273959999999</v>
       </c>
       <c r="S14">
-        <v>0.001131558551795895</v>
+        <v>3.910859186545509E-06</v>
       </c>
       <c r="T14">
-        <v>0.0007553962513820672</v>
+        <v>1.741672235110124E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>49.81180666666666</v>
+        <v>0.13707</v>
       </c>
       <c r="H15">
-        <v>149.43542</v>
+        <v>0.27414</v>
       </c>
       <c r="I15">
-        <v>0.5563688504642074</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="J15">
-        <v>0.5567462925322226</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,90 +1361,90 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.31561666666666</v>
+        <v>10.88559566666667</v>
       </c>
       <c r="N15">
-        <v>117.94685</v>
+        <v>32.656787</v>
       </c>
       <c r="O15">
-        <v>0.4391325252766332</v>
+        <v>0.1570528694711127</v>
       </c>
       <c r="P15">
-        <v>0.4394304339182383</v>
+        <v>0.1572114811835737</v>
       </c>
       <c r="Q15">
-        <v>1958.381896380777</v>
+        <v>1.49208859803</v>
       </c>
       <c r="R15">
-        <v>17625.437067427</v>
+        <v>8.952531588179999</v>
       </c>
       <c r="S15">
-        <v>0.2443196582896049</v>
+        <v>0.0003105860641570242</v>
       </c>
       <c r="T15">
-        <v>0.244651264909805</v>
+        <v>0.0002074758123798251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>49.81180666666666</v>
+        <v>0.13707</v>
       </c>
       <c r="H16">
-        <v>149.43542</v>
+        <v>0.27414</v>
       </c>
       <c r="I16">
-        <v>0.5563688504642074</v>
+        <v>0.001977589236051185</v>
       </c>
       <c r="J16">
-        <v>0.5567462925322226</v>
+        <v>0.001319724302689817</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2206736666666667</v>
+        <v>34.27442166666666</v>
       </c>
       <c r="N16">
-        <v>0.662021</v>
+        <v>102.823265</v>
       </c>
       <c r="O16">
-        <v>0.002464796249464585</v>
+        <v>0.4944971719550558</v>
       </c>
       <c r="P16">
-        <v>0.002466468373619016</v>
+        <v>0.4949965773050823</v>
       </c>
       <c r="Q16">
-        <v>10.99215402042444</v>
+        <v>4.69799497785</v>
       </c>
       <c r="R16">
-        <v>98.92938618381999</v>
+        <v>28.1879698671</v>
       </c>
       <c r="S16">
-        <v>0.001371335855943101</v>
+        <v>0.00097791228451607</v>
       </c>
       <c r="T16">
-        <v>0.001373197122660368</v>
+        <v>0.000653259012817796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="H17">
+        <v>32.656787</v>
+      </c>
+      <c r="I17">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="J17">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.072717</v>
+      </c>
+      <c r="N17">
+        <v>0.145434</v>
+      </c>
+      <c r="O17">
+        <v>0.001049130783380273</v>
+      </c>
+      <c r="P17">
+        <v>0.0007001268849397785</v>
+      </c>
+      <c r="Q17">
+        <v>0.7915678600930001</v>
+      </c>
+      <c r="R17">
+        <v>4.749407160558</v>
+      </c>
+      <c r="S17">
+        <v>0.0001647689999803482</v>
+      </c>
+      <c r="T17">
+        <v>0.000110067984597824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="H18">
+        <v>32.656787</v>
+      </c>
+      <c r="I18">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="J18">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>23.94185933333334</v>
+      </c>
+      <c r="N18">
+        <v>71.82557800000001</v>
+      </c>
+      <c r="O18">
+        <v>0.3454232385543999</v>
+      </c>
+      <c r="P18">
+        <v>0.3457720903237145</v>
+      </c>
+      <c r="Q18">
+        <v>260.6214002108763</v>
+      </c>
+      <c r="R18">
+        <v>2345.592601897886</v>
+      </c>
+      <c r="S18">
+        <v>0.0542497107969732</v>
+      </c>
+      <c r="T18">
+        <v>0.05435934247173158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="H19">
+        <v>32.656787</v>
+      </c>
+      <c r="I19">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="J19">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.13707</v>
+      </c>
+      <c r="N19">
+        <v>0.27414</v>
+      </c>
+      <c r="O19">
+        <v>0.001977589236051185</v>
+      </c>
+      <c r="P19">
+        <v>0.001319724302689817</v>
+      </c>
+      <c r="Q19">
+        <v>1.49208859803</v>
+      </c>
+      <c r="R19">
+        <v>8.952531588179999</v>
+      </c>
+      <c r="S19">
+        <v>0.0003105860641570242</v>
+      </c>
+      <c r="T19">
+        <v>0.0002074758123798251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="H20">
+        <v>32.656787</v>
+      </c>
+      <c r="I20">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="J20">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="N20">
+        <v>32.656787</v>
+      </c>
+      <c r="O20">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="P20">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="Q20">
+        <v>118.4961930181521</v>
+      </c>
+      <c r="R20">
+        <v>1066.465737163369</v>
+      </c>
+      <c r="S20">
+        <v>0.02466560380911037</v>
+      </c>
+      <c r="T20">
+        <v>0.02471544981593314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="H21">
+        <v>32.656787</v>
+      </c>
+      <c r="I21">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="J21">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="N21">
+        <v>102.823265</v>
+      </c>
+      <c r="O21">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="P21">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="Q21">
+        <v>373.0974959721727</v>
+      </c>
+      <c r="R21">
+        <v>3357.877463749555</v>
+      </c>
+      <c r="S21">
+        <v>0.07766219980089176</v>
+      </c>
+      <c r="T21">
+        <v>0.07781914509893133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="H22">
+        <v>102.823265</v>
+      </c>
+      <c r="I22">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="J22">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.072717</v>
+      </c>
+      <c r="N22">
+        <v>0.145434</v>
+      </c>
+      <c r="O22">
+        <v>0.001049130783380273</v>
+      </c>
+      <c r="P22">
+        <v>0.0007001268849397785</v>
+      </c>
+      <c r="Q22">
+        <v>2.492333120335</v>
+      </c>
+      <c r="R22">
+        <v>14.95399872201</v>
+      </c>
+      <c r="S22">
+        <v>0.0005187922053925372</v>
+      </c>
+      <c r="T22">
+        <v>0.0003465604117244595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="H23">
+        <v>102.823265</v>
+      </c>
+      <c r="I23">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="J23">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.94185933333334</v>
+      </c>
+      <c r="N23">
+        <v>71.82557800000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3454232385543999</v>
+      </c>
+      <c r="P23">
+        <v>0.3457720903237145</v>
+      </c>
+      <c r="Q23">
+        <v>820.5933822746856</v>
+      </c>
+      <c r="R23">
+        <v>7385.34044047217</v>
+      </c>
+      <c r="S23">
+        <v>0.1708108145927074</v>
+      </c>
+      <c r="T23">
+        <v>0.1711560012378625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="H24">
+        <v>102.823265</v>
+      </c>
+      <c r="I24">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="J24">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.13707</v>
+      </c>
+      <c r="N24">
+        <v>0.27414</v>
+      </c>
+      <c r="O24">
+        <v>0.001977589236051185</v>
+      </c>
+      <c r="P24">
+        <v>0.001319724302689817</v>
+      </c>
+      <c r="Q24">
+        <v>4.69799497785</v>
+      </c>
+      <c r="R24">
+        <v>28.1879698671</v>
+      </c>
+      <c r="S24">
+        <v>0.00097791228451607</v>
+      </c>
+      <c r="T24">
+        <v>0.000653259012817796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>49.81180666666666</v>
-      </c>
-      <c r="H17">
-        <v>149.43542</v>
-      </c>
-      <c r="I17">
-        <v>0.5563688504642074</v>
-      </c>
-      <c r="J17">
-        <v>0.5567462925322226</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>49.81180666666666</v>
-      </c>
-      <c r="N17">
-        <v>149.43542</v>
-      </c>
-      <c r="O17">
-        <v>0.5563688504642074</v>
-      </c>
-      <c r="P17">
-        <v>0.5567462925322226</v>
-      </c>
-      <c r="Q17">
-        <v>2481.216083397377</v>
-      </c>
-      <c r="R17">
-        <v>22330.9447505764</v>
-      </c>
-      <c r="S17">
-        <v>0.3095462977668635</v>
-      </c>
-      <c r="T17">
-        <v>0.3099664342483752</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="H25">
+        <v>102.823265</v>
+      </c>
+      <c r="I25">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="J25">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.88559566666667</v>
+      </c>
+      <c r="N25">
+        <v>32.656787</v>
+      </c>
+      <c r="O25">
+        <v>0.1570528694711127</v>
+      </c>
+      <c r="P25">
+        <v>0.1572114811835737</v>
+      </c>
+      <c r="Q25">
+        <v>373.0974959721727</v>
+      </c>
+      <c r="R25">
+        <v>3357.877463749555</v>
+      </c>
+      <c r="S25">
+        <v>0.07766219980089176</v>
+      </c>
+      <c r="T25">
+        <v>0.07781914509893133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="H26">
+        <v>102.823265</v>
+      </c>
+      <c r="I26">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="J26">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>34.27442166666666</v>
+      </c>
+      <c r="N26">
+        <v>102.823265</v>
+      </c>
+      <c r="O26">
+        <v>0.4944971719550558</v>
+      </c>
+      <c r="P26">
+        <v>0.4949965773050823</v>
+      </c>
+      <c r="Q26">
+        <v>1174.735980584469</v>
+      </c>
+      <c r="R26">
+        <v>10572.62382526022</v>
+      </c>
+      <c r="S26">
+        <v>0.244527453071548</v>
+      </c>
+      <c r="T26">
+        <v>0.2450216115437464</v>
       </c>
     </row>
   </sheetData>
